--- a/excel/booklist2019.xlsx
+++ b/excel/booklist2019.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,1381 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>הספר הרטוב : מבחר שירי ילדים על מים, גשם וים / ליקטה וערכה עטרה אופק ; איורים - יפעה מיטלמן ... [ואחרות].</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אופק, עטרה, 1953-  $$Qאופק, עטרה, 1953-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21277204790005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277204790005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>47, [1] עמודים : איורים צבעוניים ; 22X23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>990026089380205171</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>אבא הכי חזק / נרי אלומה ; אירה זהר טל ענבר.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>טל-ענבר, זהר  $$Qטל-ענבר, זהר</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21216087660005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216087660005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אלומה, נרי, 1963-$$Qאלומה, נרי, 1963-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23, [1] עמודים : איורים צבעוניים ; 25X23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>בני-ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990026100560205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>יהלום בשלג / כתב ג'ונתן אמט ; אירה ונסה קבן ; מאנגלית - אירית ארב.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>קבן, ונסה, 1971-  $$Qקבן, ונסה, 1971-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21246813290005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246813290005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>אמט, ג'ונתן, 1957-$$Qאמט, ג'ונתן, 1957-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 31 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990025921510205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>כשחיים בא לבקר / דבורה בושרי, מישל קישקה.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>קישקה, מישל, 1954-  $$Qקישקה, מישל, 1954-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21182737900005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21182737900005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>בושרי, דבורה, 1967-$$Qבושרי, דבורה, 1967-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19, [1] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990026106450205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>אצבעוני / חיים נחמן ביאליק ; אירה שולמית צרפתי-אנגל.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>צרפתי, שולמית  $$Qצרפתי, שולמית</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21231512020005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231512020005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ביאליק, חיים נחמן, 1873-1934$$Qביאליק, חיים נחמן, 1873-1934</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE50598788</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[27] עמודים : איורים צבעוניים ; 27 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>קרית אונו : צפרא</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990026708760205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21231512020005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>האורח ביום הלדת / לאה גולדברג ; איורים: דני קרמן.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21171216850005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171216850005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>גולדברג, לאה, 1911-1970 מחבר$$Qגולדברג, לאה, 1911-1970</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Stories in rhyme; Birthdays -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303108100005171</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>בני ברק : ספריית פועלים - הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990037495730205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171216850005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>כלב כחול / דנבר פולי</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>קפודה עם מזודה : ועוד כמה שירי חידה / רינת הופר ; [עורכת הספר - יעל גובר].</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>גובר, יעל  $$Qגובר, יעל</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21188044300005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188044300005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>הופר, רינת, 1966-$$Qהופר, רינת, 1966-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>53 עמודים : איורים צבעוניים ; 31 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990026056450205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>סבא בשל מרק / נירה הראל ; אירה עפרה עמית ; עריכה - יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>עמית, עפרה, 1966-  (מאייר)  $$Qעמית, עפרה, 1966-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21176647710005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21176647710005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>הראל, נירה, 1936- מחבר$$Qהראל, נירה, 1936-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century; Grandparents -- Juvenile fiction; Soups -- Juvenile fiction; Loneliness -- Juvenile fiction; Hospitality -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304408210005171</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 23x22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הוצאת הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990038706920205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21176647710005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ינשופונים / כתב מרטין ודל ; איר פטריק בנסון ; מאנגלית - אירית ארב.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>בנסון, פטריק  $$Qבנסון, פטריק</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21188149850005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188149850005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ודל, מרטין, 1941-$$Qודל, מרטין, 1941-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[25] עמודים : איורים צבעוניים ; 22X26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990026060390205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>כשאבא היה עצוב / יונתן יבין ; איורים - גלעד סופר ; עריכה - דלית לב.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>סופר, גלעד, 1968-  $$Qסופר, גלעד, 1968-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21198867080005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21198867080005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>יבין, יונתן, 1972-$$Qיבין, יונתן, 1972-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[25] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990025999650205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>פטפוטניק בפיג'מה / שלומית כהן-אסיף ; איורים - מישל קישקה ; [עריכה - יונה טפר].</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>קישקה, מישל, 1954-  $$Qקישקה, מישל, 1954-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21237592210005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21237592210005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>כהן-אסיף, שלומית, 1949-$$Qכהן-אסיף, שלומית, 1949-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>21 עמודים : איורים צבעוניים ; 24X22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990026151160205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>עמר והבלון השובב / מירה מאיר ; איורים - ביאנקה סיפריינס.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>סיפרינס, בינקה  $$Qסיפרינס, בינקה</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21192689970005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192689970005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>מאיר, מירה, 1932-2016$$Qמאיר, מירה, 1932-2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[24] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990025597350205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>לכל אחד גרעין / טינה מת'יוס ; עברית - עדנה קרמר ; עריכה - יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>קרמר, עדנה, 1937-  $$Qקרמר, עדנה, 1937-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21203816160005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203816160005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>מת'יוס, טינה, 1961-$$Qמת'יוס, טינה, 1961-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[30] עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תשס"ח 2007</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>תל אביב : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990026234470205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>קורדרוי / ספר ואיר דון פרימן ; נסח עברי - יהודה אטלס.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>אטלס, יהודה, 1937-  $$Qאטלס, יהודה, 1937-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21203875460005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203875460005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>פרימן, דון, 1908-1978$$Qפרימן, דון, 1908-1978</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>בן שמן : צלטנר ספרים של ילדים</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990026237380205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>לאן נושבת הרוח? / בריגיטה ראב, מנואלה אולטן ; מגרמנית - רותי ריסטיק.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>אולטן, מנואלה, 1970-  $$Qאולטן, מנואלה, 1970-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211747190005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211747190005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ראב, בריגיטה$$Qראב, בריגיטה</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 27X22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990026171730205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>אין אריות כאלה! / אמי רובינגר.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21288144190005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21288144190005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>רובינגר, אמי, 1953-2019$$Qרובינגר, אמי, 1953-2019</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[30] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990025875180205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>כאשר לדב התחשק לעוף / ספרה מרים רות ; ציר אביגדור כהן.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>כהן, אביגדור, 1920-  $$Qכהן, אביגדור, 1920-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21239124560005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239124560005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>רות, מרים, 1910-2005$$Qרות, מרים, 1910-2005</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[42] עמודים : איורים צבעוניים ; 24X23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>בן שמן : מודן</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990025890670205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>חברות / זיבילה ריקהוף, יורגן ריקהוף ; מגרמנית - יונתן ניראד.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ריקהוף, יורגן  $$Qריקהוף, יורגן</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211830180005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211830180005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ריקהוף, זיבילה$$Qריקהוף, זיבילה</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[24] עמודים : איורים צבעוניים ; 31 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990026177180205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>עוגת גזר / מיריק שניר ; איורים: שירז פומן ; [עורכת הספר - יעל גובר].</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>פומן, שירז  $$Qפומן, שירז</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21176844460005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21176844460005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>שניר, מיריק, 1948-$$Qשניר, מיריק, 1948-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stories in rhyme</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[46] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990025563750205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -507,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +1959,1532 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>האי של יאשקה / יוסי אבולעפיה.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21212177310005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21212177310005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>אבולעפיה, יוסי, 1944-$$Qאבולעפיה, יוסי, 1944-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>תשס"ו 2006</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>תל-אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>990025460560205171</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>שלי בוחרת מתנה / תלמה אדמון ; איר דורון מאיר ; [עורכת הספר - מיכל פז-קלפ].</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>מאיר, דורון  $$Qמאיר, דורון</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211672870005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211672870005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אדמון, תלמה, 1950-$$Qאדמון, תלמה, 1950-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>38, [1] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990026167360205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>אקו ולוגי : ספור אקולוגי לילדים / תמר אדר ; ציורים - טניה רויטמן.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>רויטמן, טניה  $$Qרויטמן, טניה</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21175603070005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21175603070005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>אדר, תמר, 1939-2008$$Qאדר, תמר, 1939-2008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>32, [1] עמודים : איורים צבעוניים ; 31 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשנ"ד 1993</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990012615530205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>זולל החלומות הקטן / מיכאל אנדה ; אירה אנגרט פוכסהובר ; מגרמנית - יוסיפיה סימון.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>פוכסהובר, אנגרט  $$Qפוכסהובר, אנגרט</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21230668090005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230668090005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אנדה, מיכאל, 1929-1995$$Qאנדה, מיכאל, 1929-1995</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[תשס"ח]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990025842260205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>הנער ביער : מעשה נורא בנער שברח מבית-הספר ליער / חיים נחמן ביאליק ; עם נסח חדש מאת אפרים סידון ; איורים - דני קרמן ; [עריכה - יונה טפר ; הפקה גרפית - אבנר גלילי].</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>סידון, אפרים, 1946-  $$Qסידון, אפרים, 1946-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21246727430005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246727430005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ביאליק, חיים נחמן, 1873-1934$$Qביאליק, חיים נחמן, 1873-1934</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE50599668</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>48 עמודים : איורים צבעוניים ; 22X26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990025763930205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21246727430005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ככה זה בעברית / דתיה בן דור ; איורים: הלה חבקין.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>חבקין, הילה, 1948-  (מאייר)  $$Qחבקין, הילה, 1948-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21247081360005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21247081360005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>בן דור, דתיה, 1944- מחבר$$Qבן דור, דתיה, 1944-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Hebrew language -- Juvenile literature; Short stories</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304235870005171</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>36 עמודים לא ממוספרים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>תשס"ב 2002</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990052716150205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21247081360005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>השיר של לולה / כתבה ואירה אורית ברגמן.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21239991880005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239991880005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ברגמן, אורית, 1966-$$Qברגמן, אורית, 1966-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים ; 23X24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>מושב בן שמן : מודן</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990026013750205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>מעשה בשלשה אגוזים / לאה גולדברג ; איורים - שמואל כץ.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>כץ, שמואל, 1926-2010  $$Qכץ, שמואל, 1926-2010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21192490160005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192490160005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>גולדברג, לאה, 1911-1970$$Qגולדברג, לאה, 1911-1970</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>28 עמודים : איורים צבעוניים ; 25X23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990025864970205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>צביקה רב-רגל / עפרה גלברט-אבני ; ציורים מושיק לין.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21219247580005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21219247580005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>גלברט-אבני, עפרה, 1947-$$Qגלברט-אבני, עפרה, 1947-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>35, [5] עמודים : איורים צבעוניים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>19880101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[תל-אביב] : הקבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990010751980205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>להדליק את יולי / רוני גנור ; איורים - נתן הלפרן.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>הלפרן, נתן  $$Qהלפרן, נתן</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21207710990005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21207710990005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>גנור, רוני$$Qגנור, רוני</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>62, [2] עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>19990101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ת"א [=תל אביב] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990019158030205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ספורים ושירים שענת אוהבת במיחד / יהונתן גפן ; איורים: מיכל בוננו.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>בוננו, מיכל, 1966-  (מאייר)  $$Qבוננו, מיכל, 1966-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21495817490005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21495817490005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>גפן, יהונתן, 1947-2023 מחבר$$Qגפן, יהונתן, 1947-2023</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Children's poetry, Hebrew</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12499766570005171</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>107 עמודים, 1 עמוד לא ממוספר : איורים צבעוניים ; 23 ס"מ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[תשפ"ג] 2023</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : דביר</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>997012140887905171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21495817490005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>מאי, יוני, יולי / רמונה די-נור; [עורך הספר - יחיעם פדן].</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>פדן, יחיעם, 1947-2021  $$Qפדן, יחיעם, 1947-2021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21277176570005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277176570005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>דינור, רמונה, 1943-$$Qדינור, רמונה, 1943-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>88, [3] עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990026086960205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>גרגר אחד של אורז / דמי</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>שרשרת זהב : שירי מופת לילדים - מביאליק ועד יהונתן גפן / בחרה וערכה נירה הראל ; איורים - בתיה קולטון.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>קולטון, בתיה, 1967-  $$Qקולטון, בתיה, 1967-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21248597920005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21248597920005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>117 עמודים : איורים צבעוניים ; 27 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>תל אביב : אחוזת בית</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990025723500205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>מחלת הגעגועים של סולי : רחוק זה קרוב במקום אחר / נורית זרחי ; אירה טלי מנשס.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>מנשס, טלי  $$Qמנשס, טלי</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21251020690005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21251020690005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>זרחי, נורית, 1941-$$Qזרחי, נורית, 1941-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[תשס"ד]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[קרית גת] : קוראים</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990026667270205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>המעיל המופלא של יוסף / [תרגום לעברית: רחל עזוז].</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>עזוז, רחל  $$Qעזוז, רחל</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH71188021240005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71188021240005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>טבק, סימס, 1932-2011$$Qטבק, סימס, 1932-2011</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים, תוים.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20010101</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>תל-אביב : כנרת</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990026055560205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>לוטי וטרי גורי הלוטרה / כתבה ואיירה מירי לשם-פלאי ; יועץ מקצועי - עמית דלב.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>דלב, עמית  $$Qדלב, עמית</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21282639560005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21282639560005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>לשם-פלאי, מירי$$Qלשם-פלאי, מירי</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Animals -- Juvenile literature</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[28] עמודים : איורים צבעוניים ; 22X25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[תל-אביב] : משרד הבטחון - ההוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990025713950205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ספורי רחוב מיכ"ל ובכלל ... / אורה מורג ; [איורים - דבי זכאי].</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>זכאי, דובי  $$Qזכאי, דובי</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211423860005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211423860005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>מורג, אורה, 1943-$$Qמורג, אורה, 1943-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>78 עמודים : איורים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>19970101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[קרית גת] : קוראים</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990020242570205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>הילד שעמד בחלון / נאוה מקמל-עתיר ; איורים - נורית צרפתי.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>צרפתי, נורית, 1946-  $$Qצרפתי, נורית, 1946-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21227549420005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21227549420005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>מקמל-עתיר, נאוה, 1964-$$Qמקמל-עתיר, נאוה, 1964-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>28 עמודים : איורים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>19980101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[קרית גת] : דני ספרים</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990017926970205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>השבוע של הקרנף / עזי פ. ; איורים - הלה חבקין ; [עורכת - יונה טפר].</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>חבקין, הילה, 1948-  $$Qחבקין, הילה, 1948-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21215990900005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215990900005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>פליטמן, עזי$$Qפליטמן, עזי</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>45 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990026096230205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>השושנה והציפור : בהשראת הספור "היה אשר הנך" מאת סרן קירקגור / ספרה וציירה אלונה פרנקל ; [עורכת הספר - מיכל פז-קלפ ; עיצוב - אורית רובינשטיין].</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>פז-קלפ, מיכל  $$Qפז-קלפ, מיכל</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21267009640005171</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21267009640005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>פרנקל, אלונה, 1937-$$Qפרנקל, אלונה, 1937-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים ; 27 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>990025751280205171</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>אריה הספריה / מישל קנודסן ; איורים - קוין הוקס ; מאנגלית - אירית ארב.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>הוקס, קוין, 1959-  $$Qהוקס, קוין, 1959-</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211689090005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211689090005171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>קנודסן, מישל, 1974-$$Qקנודסן, מישל, 1974-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12529101240005171</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[44] עמודים : איורים צבעוניים ; 29 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c2008</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>990026167570205171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21211689090005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>הסייחה הנסיכה / שניר מיריק</t>
         </is>
       </c>
     </row>
@@ -598,7 +3499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +3576,1734 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>לא רואים עליה / חגית אהרונוף ; איורים - אבי כץ; עורכת - יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>כץ, אבי, 1949-  $$Qכץ, אבי, 1949-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21216024870005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216024870005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>אהרונוף, חגית, 1949-$$Qאהרונוף, חגית, 1949-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>122, [3] עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>990026097680205171</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>האי של נים / ונדי אור ; איורים - קרי מילרד ; מאנגלית - גילי בר-הלל סמו ; [עריכת תרגום - ליאורה פרידן].</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>מילרד, קרי  $$Qמילרד, קרי</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21218242240005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21218242240005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אור, ונדי, 1953-$$Qאור, ונדי, 1953-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>125 עמודים : איורים ; 20 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>הרצליה : איגואנה</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990026137380205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>האי ברחוב הציפורים / אורי אורלב ; ציורים: אורה איתן.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>איתן, אורה, 1940-  (מאייר)  $$Qאיתן, אורה, 1940-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21236597490005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21236597490005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>אורלב, אורי, 1931-2022 מחבר$$Qאורלב, אורי, 1931-2022</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holocaust, Jewish (1939-1945) -- Fiction; Jewish children in the Holocaust -- Fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302700600005171</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>156 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20110101</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ירושלים : בית הוצאה כתר</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990032571590205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21236597490005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>מעשה בקדרה ומצקת / מיכאל אנדה ; איר כריסטוף רודלר ; מגרמנית - יוסיפיה סימון.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>רודלר, כריסטוף  $$Qרודלר, כריסטוף</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21197983850005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21197983850005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אנדה, מיכאל, 1929-1995$$Qאנדה, מיכאל, 1929-1995</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>59, [2] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה ביתן</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990026209950205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>בגלל עכבר הנפש של אבא / נעמי בן-גור ; איורים - נורית צרפתי.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>צרפתי, נורית, 1946-  $$Qצרפתי, נורית, 1946-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21242152540005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21242152540005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>בן גור, נעמי, 1948-$$Qבן גור, נעמי, 1948-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>78, [2] עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20020101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990022400460205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>הצב מצב בעמק רפאים / דפנה בן צבי ; איורים - עמית טריינין ; [עורכת - יונה טפר].</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>טרינין, עמית  $$Qטרינין, עמית</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21216015130005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216015130005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>בן צבי, דפנה$$Qבן צבי, דפנה</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>106, [2] עמודים : איורים (חלקם צבעוניים) ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990026097130205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>שביל קליפות התפוזים : הרפתקאות מראשית ימי תל-אביב / ספר וציר: נחום גוטמן.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>מוזיאון נחום גוטמן $$Qמוזיאון נחום גוטמן</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21179371630005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21179371630005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>גוטמן, נחום, 1898-1980$$Qגוטמן, נחום, 1898-1980</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew; Tel Aviv-Yafo (Israel) -- History -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305317600005171</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>149 עמודים : איורים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>תשע"ח 2018</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>תל אביב : מוזיאון נחום גוטמן לאמנות</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990047125190205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21179371630005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>הדינוזאור מרמת-גן / כתבה ואירה רונית ש. דינצמן ; עורכת - יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>טפר, יונה, 1941-  $$Qטפר, יונה, 1941-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21203818050005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203818050005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>דינצמן, רונית$$Qדינצמן, רונית</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>71 עמודים : איורים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990026234410205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>איזה מין שם זה תיאודורה / יונה טפר ; איורים - אבי כץ ; עורכת - לאה שניר.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>כץ, אבי, 1949-  $$Qכץ, אבי, 1949-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21203935020005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203935020005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>טפר, יונה, 1941-$$Qטפר, יונה, 1941-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>267 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990026240440205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>לראות בעיניים עצומות / ענת ישראלי ; איורים - יעקב גוטרמן.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>גוטרמן, יעקב, 1935-  $$Qגוטרמן, יעקב, 1935-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21207620410005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21207620410005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ישראלי, ענת, 1955-$$Qישראלי, ענת, 1955-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>105, [1] עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20000101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[תל אביב] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990019152670205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>גלילאו גלילי : שגלה איך נע כדור הארץ בחלל הגדול / כתבה תמר כוכב ; איר ישי מישורי.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>מישורי, ישי  $$Qמישורי, ישי</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21267002720005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21267002720005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>כוכב, תמר, 1963-2006$$Qכוכב, תמר, 1963-2006</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[48] עמודים : איורים צבעוניים ; 25X24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990025751870205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>סיפורי ממלכת נרניה / קלייב סטייפלס לואיס ; איורים - פולין ביינס ; [עורך ספרותי - יחיעם פדן].</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>בינס, פולין  $$Qבינס, פולין</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21193891730005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21193891730005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>לואיס, קליו סטפלס, 1898-1963$$Qלואיס, קליו סטפלס, 1898-1963</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>455 עמודים : איורים צבעוניים ; 30 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה ביתן</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990025633750205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>הרפתקאות דוד אריה בערבות רומניה / כתב ינץ לוי ; איר יניב שמעוני ; [עורכת הספר - מיכל פז-קלפ].</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>שמעוני, יניב  $$Qשמעוני, יניב</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21233439670005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21233439670005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>לוי, ינץ, 1975-$$Qלוי, ינץ, 1975-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302754000005171</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>75, [1] עמודים : איורים צבעוניים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990025825330205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233439670005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>החתול שרצה להיות איש / לויד אלכסנדר ; מאנגלית - יעל ענבר ...</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ענבר, יעל  $$Qענבר, יעל</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21279107970005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21279107970005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>אלכסנדר, לויד, 1924-2007$$Qאלכסנדר, לויד, 1924-2007</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>124 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תשס"א 2001</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>לוד : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990021761070205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>אנסטסיה אחראית על הבית / לויס לורי ; מאנגלית - מאירה פירון.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>פירון, מאירה, 1966-  $$Qפירון, מאירה, 1966-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21255972640005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21255972640005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>לורי, לויס$$Qלורי, לויס</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>128 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>תשס"ז</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>תל אביב : טל-מאי</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990025749520205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>הכדור הוא ה... גול! / רבקה מגן ; [איורים - נורית צרפתי].</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>צרפתי, נורית, 1946-  $$Qצרפתי, נורית, 1946-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21212570670005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21212570670005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>מגן, רבקה, 1934-2018$$Qמגן, רבקה, 1934-2018</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>119, [2] עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20030101</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990022661800205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>מכתבים מגבעת הזבל / לבנה מושון ; איורים - מירה פרידמן ; [עורך הספר - יחיעם פדן].</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>פרידמן, מירה  $$Qפרידמן, מירה</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21224446410005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21224446410005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>מושון, לבנה$$Qמושון, לבנה</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>133, [2] עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990026244610205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>נעלי החלקה / נואל סטריטפילד ; איורים - יפעת נחשון ; מאנגלית - גילי בר-הלל-סמו ; [עורכת עריכה - עפרה גלברט].</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>נחשון-גולדנברג, יפעת  $$Qנחשון-גולדנברג, יפעת</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21282653400005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21282653400005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>סטריטפילד, נואל, 1895-1986$$Qסטריטפילד, נואל, 1895-1986</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>343 עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990025715200205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>הבכור לבית אב"י / דבורה עומר ; עיבד לעברית קלה משה מנור ; צייר נעם נדב.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>מנור, משה  (מעבד מוזיקלי)  $$Qמנור, משה</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21206478570005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21206478570005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>עומר, דבורה, 1932-2013$$Qעומר, דבורה, 1932-2013</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ben-Avi, Ithamar, 1882-1943 -- Fiction; Hebrew language -- Study and teaching -- Foreign speakers; Hebrew language -- Revival -- Juvenile literature; Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>141 עמודים : איורים ; 18 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>תשמ"ח 1988</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ירושלים : המחלקה לחינוך ותרבות בגולה של ההסתדרות הציונית העולמית</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990010617420205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>קלמנטיין / מאת שרה פניפקר ; איורים - מרלה פרייזי ; מאנגלית - אסנת הדר.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>פרייזי, מרלה  $$Qפרייזי, מרלה</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21211800630005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21211800630005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>פניפקר, שרה, 1951-$$Qפניפקר, שרה, 1951-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>130 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>תשס"ח 2007</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>תל-אביב : מטר</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990026175660205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>האגדה על מרפי בטטה / אואן קולפר ; איורים - טוני רוס ; מאנגלית - אמנון ריבק.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>רוס, טוני  $$Qרוס, טוני</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21277188320005171</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277188320005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>קולפר, אואן, 1965-$$Qקולפר, אואן, 1965-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>93 עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>990026087900205171</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>האיש הקטן והעלמה הקטנה / מאת אריך קסטנר ; איורים - הורסט למקה ; תרגם מגרמנית מיכאל דק.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>למקה, הורסט  $$Qלמקה, הורסט</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21256295150005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21256295150005171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>קסטנר, אריך, 1899-1974$$Qקסטנר, אריך, 1899-1974</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Children's stories, German -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>175 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>תל-אביב : אחיאסף</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>990025616090205171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>הקוסם הגידם / דני רווה ; איורים - שי צ'רקה ; [הפקה והבאה לדפוס - בתיה בודנר ; עריכה - עפרה גלברט].</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>צ'רקה, שי, 1967-  $$Qצ'רקה, שי, 1967-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21293961100005171</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21293961100005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>רווה, דני, 1943-$$Qרווה, דני, 1943-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>258, [1] עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>תל-אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>990026000750205171</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>מכתבים לילד אחר / גלילה רון-פדר.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21242717720005171</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21242717720005171</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>רון-פדר-עמית, גלילה, 1949-$$Qרון-פדר-עמית, גלילה, 1949-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Children with disabilities -- Juvenile fiction; Friendship -- Juvenile fiction; Epistolary fiction; Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>91 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19880101</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ירושלים : דגן</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>990021563760205171</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -689,7 +5318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +5395,1532 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>הנער מסביליה / אורגד דורית</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>מסע אל ים הנהר / אווה איבוטסון ; [תרגום - ענבל שגיב נקדימון].</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>שגיב-נקדימון, ענבל  $$Qשגיב-נקדימון, ענבל</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21203949200005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203949200005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>איבוטסון, אוה, 1925-2010$$Qאיבוטסון, אוה, 1925-2010</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>285 עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>תל אביב : גרף</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990026240890205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>הקיץ של הברבורים / בטסי באיירס, ציורים - טד קוקניס, מאנגלית - דורית גינת.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>גינת, דורית  (מתרגם)  $$Qגינת, דורית</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21190741140005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21190741140005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>בירס, בטסי$$Qבירס, בטסי</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>122, [1] עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשמ"ה (1984)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(ת"א)[=תל-אביב] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990009943330205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>כמו רוח מדבר / רוני גבעתי.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21166780570005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21166780570005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>גבעתי, רוני, 1940-2014$$Qגבעתי, רוני, 1940-2014</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Children's stories, Israeli</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>103 עמודים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>תשס"ג 2002</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990022891190205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>מנגינה שאין לה סוף / עמי גדליה.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21291611920005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21291611920005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>גדליה, עמי, 1952-$$Qגדליה, עמי, 1952-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>172 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>19980101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990017987560205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>סטרוגנזה - עיר המסכות / מרי הופמן ; תרגום - מרינה גרוסלרנר ; [עריכה - עפרה גלברט]. [טרילוגיית סטרוגנזה ; 1 ] [פרוזה עשרה ] [ידיעות ספרים ]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>גרוסלרנר, מרינה, 1967-  $$Qגרוסלרנר, מרינה, 1967-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21248546620005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21248546620005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>הופמן, מרי, 1945-$$Qהופמן, מרי, 1945-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>407 עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[תשס"ז] 2007</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>תל-אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990025720940205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>אקדמיה לנסיכות / שנון הייל ; מאנגלית - עידית שורר.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>שורר, עידית  $$Qשורר, עידית</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21240169220005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21240169220005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>הייל, שנון, 1974-$$Qהייל, שנון, 1974-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>264, [2] עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990026019150205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>הכוכב של אינדיגו / הילרי מק'קיי ; מאנגלית - נועה אפרת.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>אפרת, נועה  $$Qאפרת, נועה</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21246847950005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246847950005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>מקקי, הילרי$$Qמקקי, הילרי</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>249 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>מושב בן שמן : מודן</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990025769530205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>איגרת מעולם האמת / קורנל מקושינסקי ; מפולנית - ענת זיידמן.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>זיידמן, ענת  $$Qזיידמן, ענת</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21267395910005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21267395910005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>מקושינסקי, קורנל, 1884-1953$$Qמקושינסקי, קורנל, 1884-1953</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>320 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>תשס"ד 2003</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990023412280205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>לאן נעלמה דונה? / חנה מרון.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21230965420005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21230965420005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>מרון, חנה$$Qמרון, חנה</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dogs -- Fiction; Human-animal relationships -- Fiction; Dog owners -- Fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>76 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>תל-אביב : גוונים</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990027891550205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>הגדולה מכולן / נגה מרון ; [איורים - טובית אוריאל].</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>אוריאל, טובית  $$Qאוריאל, טובית</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21215153200005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215153200005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>מרון, נגה, 1928-2022$$Qמרון, נגה, 1928-2022</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>61 עמודים : איורים ; 24 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>קרית גת : קוראים</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990026181190205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>הרפתקאותיו של תום סוייר / מאת מרק טווין ; (תרגם מאנגלית ועיבד דן לוין).</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Twain, Mark, 1835-1910.  $$QTwain, Mark, 1835-1910.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21277425250005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21277425250005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>טוין, מרק, 1835-1910$$Qטוין, מרק, 1835-1910</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>95, [1] עמודים : איורים ; 8.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[תשי"ט]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>תל אביב : ש' פרידמן</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990019221190205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>מלך הילדים : סיפורו של לוין קיפניס / לאה נאור ; [ייעוץ - מירי ברוך, אליהו הכהן, צבי צמרת].</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21270774930005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270774930005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>נאור, לאה, 1935-$$Qנאור, לאה, 1935-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>קיפניס, לוין, 1894-1990; Authors, Hebrew -- Biography; Children's literature, Hebrew -- History and criticism</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>294 עמודים, [4] דפי לוחות : איורים (חלקם צבעוניים), פורטרטים, פקסימילים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ירושלים : יד יצחק בן-צבי</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990026123520205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>צעדים קטנים / לואיס סצ'ר ; [תרגמה מאנגלית לאה ששקו ; עורכת - דליה לב].</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ששקו, לאה  $$Qששקו, לאה</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21167142180005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167142180005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>סצ'ר, לואיס, 1954-$$Qסצ'ר, לואיס, 1954-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>232 עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>תל-אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990025732460205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ילדת-כוכבים / ג'רי ספינלי ; מאנגלית - חגי ברקת.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ברקת, חגי, 1967-  $$Qברקת, חגי, 1967-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21286975320005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21286975320005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ספינלי, ג'רי$$Qספינלי, ג'רי</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>187 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990025984270205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>דייגו טורס והנערה היפה / אורית עוזיאל.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21270701740005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270701740005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>עוזיאל, אורית, 1952-$$Qעוזיאל, אורית, 1952-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>156 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>990026117740205171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>פגיעה ישירה / דבורה עומר.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21173028660005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21173028660005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>עומר, דבורה, 1932-2013$$Qעומר, דבורה, 1932-2013</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>164 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[1981]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>תל אביב : י. שרברק</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990013059200205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>המשימה האבודה / עמלה עינת ; [עריכה - יונבה טפר].</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>טפר, יונה, 1941-  $$Qטפר, יונה, 1941-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21270702560005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270702560005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>עינת, עמלה, 1939-$$Qעינת, עמלה, 1939-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Children's literature, Hebrew; Children's literature, Israeli; Espionage, Israeli -- Egypt -- Juvenile fiction; Children's stories, Israeli</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>125, [2] עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990026117670205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>בוקר חום / פרנק פבלוף ; תרגם מצרפתית: ראובן מירן ; עריכה - שושי מירן.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>מירן, ראובן, 1944-  (מתרגם)  $$Qמירן, ראובן, 1944-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH11361227030005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11361227030005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>פבלוף, פרנק, 1940- מחבר$$Qפבלוף, פרנק, 1940-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>French fiction -- 21st century -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE33391649</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1 מקור מקוון (21 עמודים) : איורים</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[2008]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>בנימינה : נהר ספרים</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990037261130205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ebook</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>אודיסאוס / יחיעם פדן ; [עורכות הספר - נורית קרשון ושרית בלונדר].</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>קרשון, נורית  $$Qקרשון, נורית</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21272882910005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21272882910005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>פדן, יחיעם, 1947-2021$$Qפדן, יחיעם, 1947-2021</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Odysseus, King of Ithaca (Mythological character) -- Fiction</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>395, [3] עמודים ; 31 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990025606620205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>הכול בגלל המלחמה / אירית ר. קופר.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21196526060005171</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21196526060005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>קופר, אירית ר., 1929-2021$$Qקופר, אירית ר., 1929-2021</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Holocaust, Jewish (1939-1945) -- Fiction; Mothers and daughters -- Fiction; World War, 1939-1945 -- Fiction</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>160 עמודים ; 25 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20040101</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>קרית גת : דני ספרים</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>990025782010205171</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ילדי המנורה; הרפתקת אחנאתון / קר פיליפ ב'</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>תוהו ובוהו רגיל בהחלט / שרון קריץ ; מאנגלית - מאירה פירון.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>פירון, מאירה, 1966-  $$Qפירון, מאירה, 1966-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21188142530005171</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188142530005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>קריץ', שרון, 1945-$$Qקריץ', שרון, 1945-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>192 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>תל אביב : טל-מאי</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>990026060670205171</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -780,7 +6935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,6 +7015,1604 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>השבועה : סיפור אמיתי / רם אורן ; ייעוץ - מיכאל (מייק) סטולוביצקי ; עורך - יוסף שביט.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>סטולוביצקי, מיכאל  $$Qסטולוביצקי, מיכאל</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21288022780005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21288022780005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>אורן, רם, 1936-$$Qאורן, רם, 1936-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>סטולוביצקי, מיכאל; בבילינסקה, גרטרודה, 1902-1995; Jews -- Poland -- Warsaw -- Biography; Righteous Gentiles in the Holocaust -- Biography; Jewish children in the Holocaust -- Biography; Holocaust, Jewish (1939-1945) -- Rescue -- Poland; Holocaust, Jewish (1939-1945) -- Personal narratives; Holocaust survivors -- Biography</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>320 עמודים : פורטרטים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>תל אביב : קשת</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>990025869410205171</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>אהובתי במטפחת האדומה / צ'ינגיס אייטמטוב ; [תרגמה מרוסית והוסיפה הערות דינה מרקון].</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>מרקון, דינה, 1959-  $$Qמרקון, דינה, 1959-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21167145400005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167145400005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אייטמטוב, צ'ינגיז, 1928-2008$$Qאייטמטוב, צ'ינגיז, 1928-2008</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kyrgyz literature -- 20th century -- Translations into Hebrew; Russian fiction -- 20th century -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>151 עמודים ; 19 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>תשס"ז 2007</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>990025732300205171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>מותר להתנשק בשביל הראשי / יעל בן ברוך.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21235515610005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21235515610005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>בן ברוך, יעל, 1950-$$Qבן ברוך, יעל, 1950-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>215, [1] עמודים : איורים, פורטרטים, פקסימיל ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>בני ברק : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990025914400205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>הקוראת המלכותית / אלן בנט ; [תרגם מאנגלית והוסיף מפתח מושגים יואב כ"ץ].</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>כץ, יואב, 1965-  $$Qכץ, יואב, 1965-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21224452050005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21224452050005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>בנט, אלן, 1934-$$Qבנט, אלן, 1934-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Books and reading -- Fiction; Kings and rulers -- Fiction; Queens -- Great Britain -- Fiction; Great Britain -- Fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>149 עמודים ; 19 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990026245780205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>פרחים לגברת האריס / פול גאליקו ; עברית - נורית לוינסון.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>לוינסון, נורית, 1938-  $$Qלוינסון, נורית, 1938-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21219157280005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21219157280005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>גליקו, פול, 1897-1976$$Qגליקו, פול, 1897-1976</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>99, [1] עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>19870101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>גבעתים : מסדה</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990010749080205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ויזה לאמריקה / חואן דה רקקואצ'אה ; תרגמה דפנה ברעם.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ברעם, דפנה  $$Qברעם, דפנה</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21224809880005171</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21224809880005171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>דה רקקואצ'אה, חואן, 1936-$$Qדה רקקואצ'אה, חואן, 1936-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bolivian fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>224 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>990025905010205171</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>המינגווי וגשם הציפורים המתות / בוריס זיידמן.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21270237130005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270237130005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>זיידמן, בוריס, 1963-$$Qזיידמן, בוריס, 1963-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Immigrants -- Fiction; Jews, Russian -- Fiction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>221 עמודים ; 19 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>תשס"ז 2006</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990025521860205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>השד מברלין / ג'ודי טל ; [עורך הספר - מנחם פרי].</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>פרי, מנחם, 1942-  $$Qפרי, מנחם, 1942-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21215991550005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215991550005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>טל-קופלמן, ג'ודי, 1965-$$Qטל-קופלמן, ג'ודי, 1965-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Father and child -- Fiction; Romance fiction; Man-woman relationships -- Fiction; Women -- Fiction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>232, [3] עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>בני ברק : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990026096200205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>נשיקה / רות ירדני כץ.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21239266100005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239266100005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ירדני-כץ, רות, 1943-2017$$Qירדני-כץ, רות, 1943-2017</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holocaust, Jewish (1939-1945) -- Fiction; Holocaust, Jewish (1939-1945) -- Belgium -- Fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>175 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ירושלים : אמיר</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>990026029020205171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>השם הטוב / ג'ומפה להירי ; תרגמה מאנגלית: שלומית אפל.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>אפפל, שולמית, 1948-  (מתרגם)  $$Qאפפל, שולמית, 1948-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21339606660005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21339606660005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>להירי, ג'ומפה, 1967- מחבר$$Qלהירי, ג'ומפה, 1967-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>American fiction -- Translations into Hebrew; Bengali Americans -- Cultural assimilation -- Fiction; Children of immigrants -- United States -- Fiction; Names, Personal -- Fiction; Kolkata (India) -- Fiction; Boston (Mass.) -- Fiction; New York (N.Y.) -- Fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12340141330005171</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>326 עמודים ; 19 ס"מ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>תשס"ו 2005</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>תל אביב : עם עובד</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>997008523587005171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21339606660005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>מיסטר פיפ / לויד ג'ונס ; מאנגלית - יצהר ורדי.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ורדי, יצהר  $$Qורדי, יצהר</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21210922720005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21210922720005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ג'ונס, לויד, 1955-$$Qג'ונס, לויד, 1955-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bougainville Island (Papua New Guinea) -- Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>219 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990025854310205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>מחלקת אבדות / זיגפריד לנץ ; מגרמנית - גלעד גינבר.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>גינבר, גלעד  $$Qגינבר, גלעד</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21216029590005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216029590005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>לנץ, זיגפריד, 1926-2014$$Qלנץ, זיגפריד, 1926-2014</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>German fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>184 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bnei Brak : ספרית פועלים</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990026097470205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>עאידה / סמי מיכאל.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21215980190005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215980190005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>מיכאל, סמי, 1926-2024$$Qמיכאל, סמי, 1926-2024</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jews -- Iraq -- Fiction; Romance fiction; Baghdad (Iraq) -- Fiction; Iraq -- Fiction</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>271 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת, זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990026095660205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>משאלה אחת ימינה / אשכול נבו ; [עורכת הספר - הילה בלום].</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>בלום, הילה  $$Qבלום, הילה</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21167137400005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167137400005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>נבו, אשכול, 1971-$$Qנבו, אשכול, 1971-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Soccer fans -- Israel -- Fiction; Male friendship -- Fiction; Wishes -- Fiction; Israel -- History -- 21st century -- Fiction</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>336 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>אור יהודה : זמורה-ביתן</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990025731720205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>החידה של אנהיטה / מייגן נַטוֹל סיירס ; מאנגלית - עידית שורר.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>שורר, עידית  $$Qשורר, עידית</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21267018410005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21267018410005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>סיירס, מייגן נטול$$Qסיירס, מייגן נטול</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Persian fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>327 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990025752290205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>בואי הרוח / חיים סבתו ; עורך: יהודה מלצר.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21485172800005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21485172800005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>פרקש, משה, 1925-1982; Jewish children -- Fiction; Holocaust survivors -- Fiction; Immigrants -- Israel -- Fiction; Jews, Hungarian -- Fiction; Jerusalem (Israel) -- Social life and customs -- Fiction; Kiryat Yovel (Jerusalem, Israel) -- Fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12493665940005171</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>169 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>תשפ"ג 2022</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>תל אביב : ספרי עליית הגג ; ראשון לציון, משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>997011536200105171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21485172800005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>גנבת הספרים / מרקוס זוסאק ; [תרגום - ורד טוכטרמן].</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>טוכטרמן, ורד, 1970-  $$Qטוכטרמן, ורד, 1970-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21294321680005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21294321680005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>זוסק, מרקוס, 1975-$$Qזוסק, מרקוס, 1975-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Australian fiction -- Translations into Hebrew; World War, 1939-1945 -- Children -- Germany -- Fiction; Holocaust, Jewish (1939-1945) -- Rescue -- Fiction; Storytelling -- Fiction; Prohibited books -- Germany -- Fiction; Books and reading -- Fiction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>488 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ת"א [=תל אביב] : אופוס</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990025683040205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>שומרת אחותי / ג'ודי פיקו ; מאנגלית - מיכל קירזנר-אפלבוים.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>קירזנר-אפלבוים, מיכל  $$Qקירזנר-אפלבוים, מיכל</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21279563930005171</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21279563930005171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>פיקו, ג'ודי, 1966-$$Qפיקו, ג'ודי, 1966-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Domestic fiction; Leukemia -- Patients -- Fiction; Mothers and daughters -- Fiction; Organ donors -- Fiction; Sick children -- Fiction; Sisters -- Fiction; Teenage girls -- Fiction</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>446 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>990025383430205171</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>בכוח הלב; סיפורו של דניאל פרל / פרל מריאן ושרה קרייטון</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>אקסודוס; אודיסיאה של מפקד / קניוק יורם</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>סיפורים מתעוררים לחיים / יעל קפיטולניק ; [עריכה - לאה צבעוני].</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>צבעוני, לאה, 1946-2022  $$Qצבעוני, לאה, 1946-2022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21224792280005171</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21224792280005171</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>קפיטולניק, יעל$$Qקפיטולניק, יעל</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>144 עמודים : איורים, פורטרטים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>מבשרת ציון : צבעונים</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>990025904680205171</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>הכלב היהודי : דער יידישער הונט / אשר קרביץ.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ורבין, רנה, 1973-  $$Qורבין, רנה, 1973-</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21167258010005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167258010005171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>קרביץ, אשר, 1969-$$Qקרביץ, אשר, 1969-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dogs -- Fiction</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302615160005171</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>219 עמודים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>990025736570205171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21167258010005171</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>צלה של הרוח / קרלוס רואיס סאפון ; מספרדית - ליה נירגד.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>נירגד, ליה, 1962-  $$Qנירגד, ליה, 1962-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21206233660005171</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21206233660005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>רואיס ספון, קרלוס, 1964-2020$$Qרואיס ספון, קרלוס, 1964-2020</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Out-of-print books -- Spain -- Barcelona -- Fiction; Authors -- Fiction; Spanish fiction -- Translations into Hebrew; Barcelona (Spain) -- Fiction</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>460, [1] עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>990025231950205171</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>מים שאין להם סוף / מיכאל שיינפלד ; [עריכה - ננו שבתאי ; הפקה והבאה לדפוס - בתיה בודנר].</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>שבתאי, ננו, 1975-  $$Qשבתאי, ננו, 1975-</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21252928030005171</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21252928030005171</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>שיינפלד, מיכאל, 1976-$$Qשיינפלד, מיכאל, 1976-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Orthodox Judaism -- Fiction; Yeshivot -- Israel -- Fiction; Young adults -- Israel -- Fiction</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>381 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>990026348060205171</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/booklist2019.xlsx
+++ b/excel/booklist2019.xlsx
@@ -859,42 +859,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>האורח ביום הלדת / לאה גולדברג ; איורים: דני קרמן.</t>
+          <t>האורח ביום הלדת / לאה גולדברג ; איורים - דני קרמן.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>קרמן, דני, 1940-  (מאייר)  $$Qקרמן, דני, 1940-</t>
+          <t>קרמן, דני, 1940-  $$Qקרמן, דני, 1940-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21171216850005171</t>
+          <t>NNL_ALEPH21203910330005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21171216850005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203910330005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>גולדברג, לאה, 1911-1970 מחבר$$Qגולדברג, לאה, 1911-1970</t>
+          <t>גולדברג, לאה, 1911-1970$$Qגולדברג, לאה, 1911-1970</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew; Stories in rhyme; Birthdays -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303108100005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+          <t>24 עמודים : איורים צבעוניים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>בני ברק : ספריית פועלים - הקיבוץ המאוחד</t>
+          <t>בני ברק : ספרית פועלים</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990037495730205171</t>
+          <t>990026239630205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -924,14 +924,79 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21171216850005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>כלב כחול / דנבר פולי</t>
+          <t>כלב כחל / כתבה וצירה פולי דנבר ; עריכה - יונה טפר ; [עברית - עדנה קרמר].</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>קרמר, עדנה, 1937-  $$Qקרמר, עדנה, 1937-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21192509190005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192509190005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>דנבר, פולי$$Qדנבר, פולי</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[32] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[בני ברק] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990025865030205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -2325,47 +2390,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ככה זה בעברית / דתיה בן דור ; איורים: הלה חבקין.</t>
+          <t>ככה זה בעברית / דתיה בן דור ; איורים - הלה חבקין.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>חבקין, הילה, 1948-  (מאייר)  $$Qחבקין, הילה, 1948-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21247081360005171</t>
+          <t>NNL_ALEPH21283320860005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21247081360005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21283320860005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>בן דור, דתיה, 1944- מחבר$$Qבן דור, דתיה, 1944-</t>
+          <t>בן דור, דתיה, 1944-$$Qבן דור, דתיה, 1944-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Children's literature, Hebrew; Hebrew language -- Juvenile literature; Short stories</t>
+          <t>Children's literature, Israeli; Hebrew language -- Juvenile literature</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304235870005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303812030005171</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>36 עמודים לא ממוספרים : איורים צבעוניים ; 26 ס"מ.</t>
+          <t>[19] דפים : איורים צבעוניים ; 26 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>תשס"ב 2002</t>
+          <t>תשנ"א 1990</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2380,7 +2445,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990052716150205171</t>
+          <t>990012110230205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2390,7 +2455,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21247081360005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21283320860005171</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2894,72 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>גרגר אחד של אורז / דמי</t>
+          <t>גרגר אחד של ארז : ספור עם / דמי ; מאנגלית - תמי הראל.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>הראל, תמי  $$Qהראל, תמי</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21188044670005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21188044670005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>דמי$$Qדמי</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[36] עמודים : איורים צבעוניים ; 26 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990026056430205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3614,72 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>הסייחה הנסיכה / שניר מיריק</t>
+          <t>הסיחה הנסיכה / מאת מיריק שניר ; איורים - עפרה עמית.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>עמית, עפרה, 1966-  $$Qעמית, עפרה, 1966-</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21228737140005171</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21228737140005171</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>שניר, מיריק, 1948-$$Qשניר, מיריק, 1948-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[45] עמודים : איורים צבעוניים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20080101</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>אור יהודה : כנרת</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>990026072450205171</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3726,52 +3921,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>האי ברחוב הציפורים / אורי אורלב ; ציורים: אורה איתן.</t>
+          <t>האי ברחוב הציפורים / אורי אורלב.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>איתן, אורה, 1940-  (מאייר)  $$Qאיתן, אורה, 1940-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21236597490005171</t>
+          <t>NNL_ALEPH21217718190005171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21236597490005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21217718190005171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>אורלב, אורי, 1931-2022 מחבר$$Qאורלב, אורי, 1931-2022</t>
+          <t>אורלב, אורי, 1931-2022$$Qאורלב, אורי, 1931-2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Holocaust, Jewish (1939-1945) -- Fiction; Jewish children in the Holocaust -- Fiction</t>
+          <t>Children's stories, Hebrew; Holocaust, Jewish (1939-1945) -- Juvenile literature; Holocaust, Jewish (1939-1945), in literature</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302700600005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>156 עמודים : איורים ; 22 ס"מ.</t>
+          <t>156 עמודים : איורים ; 23 ס"מ.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20110101</t>
+          <t>[1981]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ירושלים : בית הוצאה כתר</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3781,7 +3976,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>990032571590205171</t>
+          <t>990011401190205171</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -3791,7 +3986,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21236597490005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -4014,27 +4209,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>שביל קליפות התפוזים : הרפתקאות מראשית ימי תל-אביב / ספר וציר: נחום גוטמן.</t>
+          <t>שביל קלפות התפוזים : הרפתקאות מראשית ימי תל-אביב / ספר וציר נחום גוטמן.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>מוזיאון נחום גוטמן $$Qמוזיאון נחום גוטמן</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21179371630005171</t>
+          <t>NNL_ALEPH21225730430005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21179371630005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21225730430005171</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>גוטמן, נחום, 1898-1980$$Qגוטמן, נחום, 1898-1980</t>
+          <t>גוטמן, נחום, 1898-1980 מחבר מאייר$$Qגוטמן, נחום, 1898-1980</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4044,22 +4239,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305317600005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>149 עמודים : איורים ; 25 ס"מ.</t>
+          <t>136 עמודים : איורים, פקסימילים ; 24 ס"מ.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>תשע"ח 2018</t>
+          <t>תשכ"ז 1967</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>תל אביב : מוזיאון נחום גוטמן לאמנות</t>
+          <t>תל אביב : הוצאת יבנה</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -4069,7 +4264,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990047125190205171</t>
+          <t>990038509370205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4079,7 +4274,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21179371630005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5596,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>הנער מסביליה / אורגד דורית</t>
+          <t>הנער מסיביליה / דורית אורגד.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21239315140005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239315140005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Inquisition -- Spain -- Juvenile fiction; Crypto-Jews -- Spain -- Juvenile fiction; Jews -- Spain -- History -- 17th century -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>151 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[1984]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ירושלים : מרכז זלמן שזר</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>990003464330205171</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -6848,7 +7108,72 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ילדי המנורה; הרפתקת אחנאתון / קר פיליפ ב'</t>
+          <t>הרפתקת אחנאתון / פיליפ ב' קר ; מאנגלית - אורי בלסם.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>בלסם, אורי  $$Qבלסם, אורי</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21270234670005171</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270234670005171</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>קר, פיליפ, 1956-$$Qקר, פיליפ, 1956-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>339 עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>תשס"ח 2008</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>תל-אביב : מטר</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>990026495900205171</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -8098,27 +8423,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>בואי הרוח / חיים סבתו ; עורך: יהודה מלצר.</t>
+          <t>בואי הרוח / חיים סבתו ; [עורך - יהודה מלצר].</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
+          <t>מלצר, יהודה, 1940-  $$Qמלצר, יהודה, 1940-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21485172800005171</t>
+          <t>NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21485172800005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
+          <t>סבתו, חיים, 1952-$$Qסבתו, חיים, 1952-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -8128,22 +8453,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12493665940005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>169 עמודים ; 21 ס"מ.</t>
+          <t>162 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>תשפ"ג 2022</t>
+          <t>20080101</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>תל אביב : ספרי עליית הגג ; ראשון לציון, משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+          <t>תל אביב : ספרי עלית הגג</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -8153,7 +8478,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>997011536200105171</t>
+          <t>990025862870205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -8163,7 +8488,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21485172800005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -8314,14 +8639,144 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>בכוח הלב; סיפורו של דניאל פרל / פרל מריאן ושרה קרייטון</t>
+          <t>בכוח הלב : חייו האמיצים של בעלי דניאל פרל ומותו / מאת: מריאן פרל עם שרה קרייטון ; מאנגלית - ד. רז ; עורכת - עשי וינשטיין ; יעוץ מדעי - רועי כהנוביץ'.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>קריטון, שרה  $$Qקריטון, שרה</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21215153360005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21215153360005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>פרל, מריאן, 1967-$$Qפרל, מריאן, 1967-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>פרל, דניאל, 1963-2002; Reporters and reporting -- Pakistan; Reporters and reporting -- United States -- Biography</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>315 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20070101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>קרית גת : קוראים</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990026181180205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>אקסודוס; אודיסיאה של מפקד / קניוק יורם</t>
+          <t>אקסודוס - אודיסיאה של מפקד / יורם קניוק.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21229117360005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229117360005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>קניוק, יורם, 1930-2013$$Qקניוק, יורם, 1930-2013</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jewish refugees; Holocaust, Jewish (1939-1945) -- Rescue; Israel -- Emigration and immigration</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>269 עמודים ; 19 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>19990101</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[תל אביב] : הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>990018150580205171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21229117360005171</t>
         </is>
       </c>
     </row>
